--- a/PlanktonImagingRecord.xlsx
+++ b/PlanktonImagingRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12740" yWindow="1240" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="6240" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>诺氏海链藻</t>
   </si>
@@ -136,39 +136,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>王如晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151009/硅藻-新月细柱藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151015/硅藻-旋链角毛藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20150930/硅藻-布氏双尾藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151015/硅藻-浮动弯角藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151015/硅藻-菱形海线藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151023/甲藻-海洋原甲藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151126/甲藻-微小原甲藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴嘉伦 常琳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/20151211/硅藻-热带骨条藻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王如晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/20151009/硅藻-新月细柱藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/20151015/硅藻-旋链角毛藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/20150930/硅藻-布氏双尾藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/20151015/硅藻-浮动弯角藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/20151015/硅藻-菱形海线藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/20151023/甲藻-海洋原甲藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/20151126/甲藻-微小原甲藻</t>
+    <t>/20151216/硅藻-诺氏海链藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151216/硅藻-纤细角毛藻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -250,19 +266,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -270,6 +323,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -617,21 +682,23 @@
     <col min="6" max="6" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="9"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -656,8 +723,11 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -665,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
@@ -682,8 +752,11 @@
       <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -694,8 +767,11 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -704,8 +780,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -718,8 +797,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -730,8 +810,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
@@ -744,8 +825,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -756,8 +838,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -772,8 +855,9 @@
       <c r="H10" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -784,10 +868,11 @@
         <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -798,8 +883,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -808,8 +894,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -822,20 +909,22 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
@@ -846,8 +935,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -856,8 +948,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -868,8 +963,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -878,8 +974,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
@@ -892,20 +989,22 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -918,11 +1017,12 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -930,8 +1030,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
@@ -944,20 +1045,22 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -970,20 +1073,22 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -996,20 +1101,22 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
@@ -1022,35 +1129,37 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A33:H33"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>

--- a/PlanktonImagingRecord.xlsx
+++ b/PlanktonImagingRecord.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2900" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="3780" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>诺氏海链藻</t>
   </si>
@@ -185,6 +185,22 @@
   </si>
   <si>
     <t>/20151216/硅藻-纤细角毛藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常琳 王如晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151218/硅藻-中肋骨条藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151218/硅藻-柔弱角毛藻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +233,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -240,101 +256,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -683,22 +624,24 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -723,11 +666,14 @@
       <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -752,12 +698,15 @@
       <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -767,11 +716,12 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -780,12 +730,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
@@ -797,9 +748,10 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -810,10 +762,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1"/>
@@ -825,9 +778,10 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -838,10 +792,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1"/>
@@ -855,9 +810,10 @@
       <c r="H10" s="1">
         <v>30</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -870,10 +826,11 @@
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1"/>
@@ -883,9 +840,12 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -894,10 +854,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1"/>
@@ -909,9 +872,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -922,10 +886,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
@@ -935,11 +900,12 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -948,12 +914,13 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
@@ -963,9 +930,12 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -974,10 +944,13 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="4" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
@@ -989,9 +962,10 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1002,10 +976,11 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -1017,9 +992,10 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -1030,10 +1006,11 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="4" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1"/>
@@ -1045,9 +1022,10 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1058,10 +1036,11 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1"/>
@@ -1073,9 +1052,10 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1086,10 +1066,11 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="4" t="s">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1"/>
@@ -1101,9 +1082,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1114,10 +1096,11 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="4" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1"/>
@@ -1129,9 +1112,10 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1142,7 +1126,8 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="2"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
@@ -1158,7 +1143,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>

--- a/PlanktonImagingRecord.xlsx
+++ b/PlanktonImagingRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="3780" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="8120" yWindow="1100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>诺氏海链藻</t>
   </si>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>/20151218/硅藻-柔弱角毛藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,10 +272,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -608,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:J31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -627,21 +631,24 @@
     <col min="10" max="10" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -672,8 +679,9 @@
       <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -704,8 +712,9 @@
       <c r="J3" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -720,8 +729,11 @@
         <v>6</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -734,8 +746,9 @@
         <v>43</v>
       </c>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -750,8 +763,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -764,8 +780,9 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -780,8 +797,11 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -794,8 +814,9 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -812,8 +833,11 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -828,8 +852,9 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
@@ -844,8 +869,11 @@
       <c r="J12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -858,8 +886,9 @@
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -874,8 +903,11 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -888,8 +920,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -904,8 +937,11 @@
         <v>7</v>
       </c>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -918,8 +954,9 @@
         <v>44</v>
       </c>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
@@ -934,8 +971,11 @@
       <c r="J18" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -948,8 +988,9 @@
       <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="5" t="s">
         <v>8</v>
       </c>
@@ -964,8 +1005,11 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -978,8 +1022,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -994,8 +1039,11 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
@@ -1008,8 +1056,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1024,8 +1073,11 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1038,8 +1090,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1107,11 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1068,8 +1124,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="5" t="s">
         <v>12</v>
       </c>
@@ -1084,8 +1141,11 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1098,8 +1158,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
@@ -1114,8 +1175,11 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1128,21 +1192,37 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
+      <c r="K31" s="5"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="31">
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A6:A7"/>

--- a/PlanktonImagingRecord.xlsx
+++ b/PlanktonImagingRecord.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="1100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="3940" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>诺氏海链藻</t>
   </si>
@@ -205,6 +205,30 @@
   </si>
   <si>
     <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴嘉伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151223/硅藻-海洋原甲藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王如晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151225/硅藻-旋链角毛藻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,11 +299,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -628,27 +655,29 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" customWidth="1"/>
+    <col min="10" max="12" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -679,9 +708,15 @@
       <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -712,10 +747,16 @@
       <c r="J3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="K3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -729,12 +770,14 @@
         <v>6</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="5">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -746,10 +789,12 @@
         <v>43</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
@@ -763,12 +808,14 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="5">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -780,10 +827,12 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="5" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1"/>
@@ -797,12 +846,14 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="5">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -814,10 +865,12 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="5" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1"/>
@@ -833,12 +886,14 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="5">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -852,10 +907,12 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="5" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1"/>
@@ -869,12 +926,14 @@
       <c r="J12" s="1">
         <v>10</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -886,10 +945,12 @@
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5" t="s">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1"/>
@@ -903,12 +964,14 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="5">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="4"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -920,10 +983,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="5" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
@@ -937,12 +1002,14 @@
         <v>7</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="5">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -954,10 +1021,12 @@
         <v>44</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="5" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
@@ -971,12 +1040,14 @@
       <c r="J18" s="1">
         <v>40</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="4"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -988,10 +1059,12 @@
       <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="5" t="s">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
@@ -1005,12 +1078,16 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="5"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>50</v>
+      </c>
+      <c r="M20" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1022,10 +1099,14 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="5" t="s">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -1039,12 +1120,14 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="5">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1056,10 +1139,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="5" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1"/>
@@ -1073,12 +1158,14 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="5">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -1090,10 +1177,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="5" t="s">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1"/>
@@ -1107,12 +1196,14 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="5">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -1124,10 +1215,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="5" t="s">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1"/>
@@ -1141,12 +1234,16 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="5"/>
+      <c r="K28" s="3">
+        <v>49</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="4"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1158,10 +1255,14 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="5" t="s">
+      <c r="K29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1"/>
@@ -1175,12 +1276,14 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="5">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1192,37 +1295,24 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="5"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A6:A7"/>
@@ -1239,6 +1329,21 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PlanktonImagingRecord.xlsx
+++ b/PlanktonImagingRecord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>诺氏海链藻</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>/20151225/硅藻-旋链角毛藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015.12.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王如晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20151231/硅藻-新月细柱藻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,13 +312,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -655,10 +670,10 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="12" width="26.6640625" customWidth="1"/>
+    <col min="10" max="13" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -673,11 +688,12 @@
       <c r="J1" s="5"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -714,9 +730,12 @@
       <c r="L2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="7"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -753,10 +772,13 @@
       <c r="L3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="4" t="s">
+      <c r="M3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -772,12 +794,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="4">
+      <c r="M4" s="4"/>
+      <c r="N4" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -792,9 +815,10 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4" t="s">
+      <c r="N5" s="7"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
@@ -810,12 +834,13 @@
       <c r="J6" s="1"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="4">
+      <c r="M6" s="4"/>
+      <c r="N6" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -830,9 +855,10 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="4" t="s">
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1"/>
@@ -848,12 +874,13 @@
       <c r="J8" s="1"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="4">
+      <c r="M8" s="4"/>
+      <c r="N8" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -868,9 +895,10 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="4" t="s">
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1"/>
@@ -888,12 +916,13 @@
       <c r="J10" s="1"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="4">
+      <c r="M10" s="4"/>
+      <c r="N10" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -910,9 +939,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="4" t="s">
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1"/>
@@ -928,12 +958,13 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="4">
+      <c r="M12" s="4"/>
+      <c r="N12" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:14">
+      <c r="A13" s="7"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -948,9 +979,10 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="4" t="s">
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1"/>
@@ -967,11 +999,14 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="4">
+        <v>37</v>
+      </c>
+      <c r="N14" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:14">
+      <c r="A15" s="7"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -985,10 +1020,13 @@
       <c r="J15" s="1"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4" t="s">
+      <c r="M15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
@@ -1004,12 +1042,13 @@
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="4">
+      <c r="M16" s="4"/>
+      <c r="N16" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:14">
+      <c r="A17" s="7"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1024,9 +1063,10 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="4" t="s">
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
@@ -1042,12 +1082,13 @@
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="4">
+      <c r="M18" s="4"/>
+      <c r="N18" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:14">
+      <c r="A19" s="7"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1062,9 +1103,10 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="4" t="s">
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
@@ -1082,12 +1124,13 @@
       <c r="L20" s="3">
         <v>50</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="4"/>
+      <c r="N20" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1104,9 +1147,10 @@
         <v>55</v>
       </c>
       <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="4" t="s">
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -1122,12 +1166,13 @@
       <c r="J22" s="1"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="4">
+      <c r="M22" s="4"/>
+      <c r="N22" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:14">
+      <c r="A23" s="7"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1142,9 +1187,10 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="4" t="s">
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1"/>
@@ -1160,12 +1206,13 @@
       <c r="J24" s="1"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="M24" s="4">
+      <c r="M24" s="4"/>
+      <c r="N24" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -1180,9 +1227,10 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="4" t="s">
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1"/>
@@ -1198,12 +1246,13 @@
       <c r="J26" s="1"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="4">
+      <c r="M26" s="4"/>
+      <c r="N26" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:14">
+      <c r="A27" s="7"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -1218,9 +1267,10 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="4" t="s">
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1"/>
@@ -1238,12 +1288,13 @@
         <v>49</v>
       </c>
       <c r="L28" s="3"/>
-      <c r="M28" s="4">
+      <c r="M28" s="4"/>
+      <c r="N28" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:14">
+      <c r="A29" s="7"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1260,9 +1311,10 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="4" t="s">
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1"/>
@@ -1278,12 +1330,13 @@
       <c r="J30" s="1"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-      <c r="M30" s="4">
+      <c r="M30" s="4"/>
+      <c r="N30" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:14">
+      <c r="A31" s="7"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1298,6 +1351,7 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="6" t="s">
@@ -1313,6 +1367,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="N10:N11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A6:A7"/>
@@ -1329,21 +1398,6 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="M1:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/PlanktonImagingRecord.xlsx
+++ b/PlanktonImagingRecord.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="3940" yWindow="340" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>诺氏海链藻</t>
   </si>
@@ -241,6 +241,22 @@
   </si>
   <si>
     <t>/20151231/硅藻-新月细柱藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.01.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴嘉伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20160108/硅藻-微小原甲藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20160108/硅藻-布氏双尾藻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,6 +275,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -297,10 +331,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,14 +353,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -654,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -670,30 +711,31 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="13" width="26.6640625" customWidth="1"/>
+    <col min="10" max="14" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -733,9 +775,12 @@
       <c r="M2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -775,10 +820,13 @@
       <c r="M3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="7"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="7" t="s">
+      <c r="N3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -795,12 +843,13 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="7">
+      <c r="N4" s="5"/>
+      <c r="O4" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -815,10 +864,11 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="7"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="7" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
@@ -835,12 +885,13 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="7">
+      <c r="N6" s="5"/>
+      <c r="O6" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -855,10 +906,11 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="7" t="s">
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1"/>
@@ -875,12 +927,13 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
-      <c r="N8" s="7">
+      <c r="N8" s="5"/>
+      <c r="O8" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:15">
+      <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -895,10 +948,11 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="7" t="s">
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1"/>
@@ -917,12 +971,13 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="7">
+      <c r="N10" s="5"/>
+      <c r="O10" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:15">
+      <c r="A11" s="6"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -939,10 +994,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="7" t="s">
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1"/>
@@ -959,12 +1015,13 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="7">
+      <c r="N12" s="5"/>
+      <c r="O12" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:15">
+      <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -979,10 +1036,11 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="7" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1"/>
@@ -1001,12 +1059,13 @@
       <c r="M14" s="4">
         <v>37</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5"/>
+      <c r="O14" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:15">
+      <c r="A15" s="6"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1023,10 +1082,11 @@
       <c r="M15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="7" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
@@ -1043,12 +1103,13 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="7">
+      <c r="N16" s="5"/>
+      <c r="O16" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:15">
+      <c r="A17" s="6"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1063,10 +1124,11 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="7" t="s">
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
@@ -1083,12 +1145,13 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="7">
+      <c r="N18" s="5"/>
+      <c r="O18" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:15">
+      <c r="A19" s="6"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1103,10 +1166,11 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="7" t="s">
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
@@ -1125,12 +1189,13 @@
         <v>50</v>
       </c>
       <c r="M20" s="4"/>
-      <c r="N20" s="7">
+      <c r="N20" s="5"/>
+      <c r="O20" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:15">
+      <c r="A21" s="6"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1147,10 +1212,11 @@
         <v>55</v>
       </c>
       <c r="M21" s="4"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="7" t="s">
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -1167,12 +1233,15 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
-      <c r="N22" s="7">
+      <c r="N22" s="5">
+        <v>40</v>
+      </c>
+      <c r="O22" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:15">
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1187,10 +1256,13 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="7" t="s">
+      <c r="N23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1"/>
@@ -1207,12 +1279,13 @@
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="7">
+      <c r="N24" s="5"/>
+      <c r="O24" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:15">
+      <c r="A25" s="6"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -1227,10 +1300,11 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="7" t="s">
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1"/>
@@ -1247,12 +1321,13 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="7">
+      <c r="N26" s="5"/>
+      <c r="O26" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:15">
+      <c r="A27" s="6"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -1267,10 +1342,11 @@
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="7"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="7" t="s">
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1"/>
@@ -1289,12 +1365,13 @@
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="7">
+      <c r="N28" s="5"/>
+      <c r="O28" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:15">
+      <c r="A29" s="6"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1311,10 +1388,11 @@
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="7"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="7" t="s">
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1"/>
@@ -1331,12 +1409,15 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="7">
+      <c r="N30" s="5">
+        <v>40</v>
+      </c>
+      <c r="O30" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:15">
+      <c r="A31" s="6"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1351,37 +1432,25 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="7"/>
+      <c r="N31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O31" s="6"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="N10:N11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A6:A7"/>
@@ -1398,9 +1467,25 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="O30:O31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/PlanktonImagingRecord.xlsx
+++ b/PlanktonImagingRecord.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>诺氏海链藻</t>
   </si>
@@ -252,11 +252,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/20160108/硅藻-微小原甲藻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/20160108/硅藻-布氏双尾藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.01.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王如晨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20160108/甲藻-微小原甲藻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/20160115/甲藻-海洋原甲藻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,12 +343,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,7 +370,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,10 +378,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -695,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -711,10 +734,10 @@
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
     <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
-    <col min="10" max="14" width="26.6640625" customWidth="1"/>
+    <col min="10" max="15" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
@@ -731,11 +754,12 @@
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
       <c r="N1" s="5"/>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -778,9 +802,12 @@
       <c r="N2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="9"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -823,10 +850,13 @@
       <c r="N3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="6" t="s">
+      <c r="O3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -844,12 +874,13 @@
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="6">
+      <c r="O4" s="6"/>
+      <c r="P4" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="6"/>
+    <row r="5" spans="1:16">
+      <c r="A5" s="9"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -866,9 +897,10 @@
       <c r="M5" s="4"/>
       <c r="N5" s="5"/>
       <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="6" t="s">
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1"/>
@@ -886,12 +918,13 @@
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="6">
+      <c r="O6" s="6"/>
+      <c r="P6" s="9">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
         <v>29</v>
@@ -908,9 +941,10 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="6" t="s">
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="1"/>
@@ -928,12 +962,13 @@
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5"/>
-      <c r="O8" s="6">
+      <c r="O8" s="6"/>
+      <c r="P8" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:16">
+      <c r="A9" s="9"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -950,9 +985,10 @@
       <c r="M9" s="4"/>
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="6" t="s">
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1"/>
@@ -972,12 +1008,13 @@
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5"/>
-      <c r="O10" s="6">
+      <c r="O10" s="6"/>
+      <c r="P10" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:16">
+      <c r="A11" s="9"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -996,9 +1033,10 @@
       <c r="M11" s="4"/>
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="6" t="s">
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1"/>
@@ -1016,12 +1054,13 @@
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="6">
+      <c r="O12" s="6"/>
+      <c r="P12" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1038,9 +1077,10 @@
       <c r="M13" s="4"/>
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="6" t="s">
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1"/>
@@ -1060,12 +1100,13 @@
         <v>37</v>
       </c>
       <c r="N14" s="5"/>
-      <c r="O14" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1084,9 +1125,10 @@
       </c>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="6" t="s">
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1"/>
@@ -1104,12 +1146,13 @@
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="6">
+      <c r="O16" s="6"/>
+      <c r="P16" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="6"/>
+    <row r="17" spans="1:16">
+      <c r="A17" s="9"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1126,9 +1169,10 @@
       <c r="M17" s="4"/>
       <c r="N17" s="5"/>
       <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="6" t="s">
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
@@ -1146,12 +1190,13 @@
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="6">
+      <c r="O18" s="6"/>
+      <c r="P18" s="9">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="6"/>
+    <row r="19" spans="1:16">
+      <c r="A19" s="9"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1168,9 +1213,10 @@
       <c r="M19" s="4"/>
       <c r="N19" s="5"/>
       <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="6" t="s">
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
@@ -1190,12 +1236,13 @@
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="6">
+      <c r="O20" s="6"/>
+      <c r="P20" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="6"/>
+    <row r="21" spans="1:16">
+      <c r="A21" s="9"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -1214,9 +1261,10 @@
       <c r="M21" s="4"/>
       <c r="N21" s="5"/>
       <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="6" t="s">
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="1">
@@ -1236,12 +1284,13 @@
       <c r="N22" s="5">
         <v>40</v>
       </c>
-      <c r="O22" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="9"/>
       <c r="B23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1257,12 +1306,13 @@
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="6" t="s">
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="1"/>
@@ -1280,12 +1330,13 @@
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="6">
+      <c r="O24" s="6"/>
+      <c r="P24" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:16">
+      <c r="A25" s="9"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -1302,9 +1353,10 @@
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="6" t="s">
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="1"/>
@@ -1322,12 +1374,13 @@
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="6">
+      <c r="O26" s="6"/>
+      <c r="P26" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="6"/>
+    <row r="27" spans="1:16">
+      <c r="A27" s="9"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
@@ -1344,9 +1397,10 @@
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
       <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="6" t="s">
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="1"/>
@@ -1367,11 +1421,14 @@
       <c r="M28" s="4"/>
       <c r="N28" s="5"/>
       <c r="O28" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="P28" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="9"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1389,10 +1446,13 @@
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="6" t="s">
+      <c r="O29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="1"/>
@@ -1412,12 +1472,13 @@
       <c r="N30" s="5">
         <v>40</v>
       </c>
-      <c r="O30" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="9"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1433,9 +1494,10 @@
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
       <c r="N31" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O31" s="6"/>
+      <c r="P31" s="9"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
@@ -1451,6 +1513,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="A6:A7"/>
@@ -1467,21 +1544,6 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A31"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="O26:O27"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="O30:O31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
